--- a/natmiOut/OldD7/LR-pairs_lrc2p/Gnai2-Tshr.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Gnai2-Tshr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>141.686423604949</v>
+        <v>150.0354306666667</v>
       </c>
       <c r="H2">
-        <v>141.686423604949</v>
+        <v>450.106292</v>
       </c>
       <c r="I2">
-        <v>0.4220481671659174</v>
+        <v>0.4152507364956075</v>
       </c>
       <c r="J2">
-        <v>0.4220481671659174</v>
+        <v>0.4152507364956075</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.200217989688372</v>
+        <v>0.22859</v>
       </c>
       <c r="N2">
-        <v>0.200217989688372</v>
+        <v>0.68577</v>
       </c>
       <c r="O2">
-        <v>0.0734120546528184</v>
+        <v>0.06730352972305123</v>
       </c>
       <c r="P2">
-        <v>0.0734120546528184</v>
+        <v>0.06730352972305123</v>
       </c>
       <c r="Q2">
-        <v>28.36817090031799</v>
+        <v>34.29659909609333</v>
       </c>
       <c r="R2">
-        <v>28.36817090031799</v>
+        <v>308.66939186484</v>
       </c>
       <c r="S2">
-        <v>0.03098342311410617</v>
+        <v>0.02794784028625103</v>
       </c>
       <c r="T2">
-        <v>0.03098342311410617</v>
+        <v>0.02794784028625103</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>141.686423604949</v>
+        <v>150.0354306666667</v>
       </c>
       <c r="H3">
-        <v>141.686423604949</v>
+        <v>450.106292</v>
       </c>
       <c r="I3">
-        <v>0.4220481671659174</v>
+        <v>0.4152507364956075</v>
       </c>
       <c r="J3">
-        <v>0.4220481671659174</v>
+        <v>0.4152507364956075</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.10094435494406</v>
+        <v>2.180983666666667</v>
       </c>
       <c r="N3">
-        <v>2.10094435494406</v>
+        <v>6.542951</v>
       </c>
       <c r="O3">
-        <v>0.7703335851475741</v>
+        <v>0.6421448840062525</v>
       </c>
       <c r="P3">
-        <v>0.7703335851475741</v>
+        <v>0.6421448840062525</v>
       </c>
       <c r="Q3">
-        <v>297.6752918450304</v>
+        <v>327.2248237052991</v>
       </c>
       <c r="R3">
-        <v>297.6752918450304</v>
+        <v>2945.023413347692</v>
       </c>
       <c r="S3">
-        <v>0.3251178777178839</v>
+        <v>0.2666511360204828</v>
       </c>
       <c r="T3">
-        <v>0.3251178777178839</v>
+        <v>0.2666511360204827</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,60 +652,60 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>141.686423604949</v>
+        <v>150.0354306666667</v>
       </c>
       <c r="H4">
-        <v>141.686423604949</v>
+        <v>450.106292</v>
       </c>
       <c r="I4">
-        <v>0.4220481671659174</v>
+        <v>0.4152507364956075</v>
       </c>
       <c r="J4">
-        <v>0.4220481671659174</v>
+        <v>0.4152507364956075</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.426155268738376</v>
+        <v>0.173517</v>
       </c>
       <c r="N4">
-        <v>0.426155268738376</v>
+        <v>0.520551</v>
       </c>
       <c r="O4">
-        <v>0.1562543601996075</v>
+        <v>0.05108844029465279</v>
       </c>
       <c r="P4">
-        <v>0.1562543601996075</v>
+        <v>0.05108844029465278</v>
       </c>
       <c r="Q4">
-        <v>60.38041592794642</v>
+        <v>26.033697822988</v>
       </c>
       <c r="R4">
-        <v>60.38041592794642</v>
+        <v>234.303280406892</v>
       </c>
       <c r="S4">
-        <v>0.06594686633392739</v>
+        <v>0.02121451245876644</v>
       </c>
       <c r="T4">
-        <v>0.06594686633392739</v>
+        <v>0.02121451245876644</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,55 +714,55 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>67.92168737024831</v>
+        <v>150.0354306666667</v>
       </c>
       <c r="H5">
-        <v>67.92168737024831</v>
+        <v>450.106292</v>
       </c>
       <c r="I5">
-        <v>0.2023215981889492</v>
+        <v>0.4152507364956075</v>
       </c>
       <c r="J5">
-        <v>0.2023215981889492</v>
+        <v>0.4152507364956075</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.200217989688372</v>
+        <v>0.8133136666666667</v>
       </c>
       <c r="N5">
-        <v>0.200217989688372</v>
+        <v>2.439941</v>
       </c>
       <c r="O5">
-        <v>0.0734120546528184</v>
+        <v>0.2394631459760435</v>
       </c>
       <c r="P5">
-        <v>0.0734120546528184</v>
+        <v>0.2394631459760435</v>
       </c>
       <c r="Q5">
-        <v>13.5991437015132</v>
+        <v>122.0258662454191</v>
       </c>
       <c r="R5">
-        <v>13.5991437015132</v>
+        <v>1098.232796208772</v>
       </c>
       <c r="S5">
-        <v>0.0148528442236927</v>
+        <v>0.09943724773010724</v>
       </c>
       <c r="T5">
-        <v>0.0148528442236927</v>
+        <v>0.09943724773010722</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,55 +776,55 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>67.92168737024831</v>
+        <v>68.382243</v>
       </c>
       <c r="H6">
-        <v>67.92168737024831</v>
+        <v>205.146729</v>
       </c>
       <c r="I6">
-        <v>0.2023215981889492</v>
+        <v>0.1892604742946246</v>
       </c>
       <c r="J6">
-        <v>0.2023215981889492</v>
+        <v>0.1892604742946246</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.10094435494406</v>
+        <v>0.22859</v>
       </c>
       <c r="N6">
-        <v>2.10094435494406</v>
+        <v>0.68577</v>
       </c>
       <c r="O6">
-        <v>0.7703335851475741</v>
+        <v>0.06730352972305123</v>
       </c>
       <c r="P6">
-        <v>0.7703335851475741</v>
+        <v>0.06730352972305123</v>
       </c>
       <c r="Q6">
-        <v>142.6996856587984</v>
+        <v>15.63149692737</v>
       </c>
       <c r="R6">
-        <v>142.6996856587984</v>
+        <v>140.68347234633</v>
       </c>
       <c r="S6">
-        <v>0.1558551220856802</v>
+        <v>0.01273789795708704</v>
       </c>
       <c r="T6">
-        <v>0.1558551220856802</v>
+        <v>0.01273789795708704</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,60 +838,60 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>67.92168737024831</v>
+        <v>68.382243</v>
       </c>
       <c r="H7">
-        <v>67.92168737024831</v>
+        <v>205.146729</v>
       </c>
       <c r="I7">
-        <v>0.2023215981889492</v>
+        <v>0.1892604742946246</v>
       </c>
       <c r="J7">
-        <v>0.2023215981889492</v>
+        <v>0.1892604742946246</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.426155268738376</v>
+        <v>2.180983666666667</v>
       </c>
       <c r="N7">
-        <v>0.426155268738376</v>
+        <v>6.542951</v>
       </c>
       <c r="O7">
-        <v>0.1562543601996075</v>
+        <v>0.6421448840062525</v>
       </c>
       <c r="P7">
-        <v>0.1562543601996075</v>
+        <v>0.6421448840062525</v>
       </c>
       <c r="Q7">
-        <v>28.94518493443213</v>
+        <v>149.140555073031</v>
       </c>
       <c r="R7">
-        <v>28.94518493443213</v>
+        <v>1342.264995657279</v>
       </c>
       <c r="S7">
-        <v>0.03161363187957632</v>
+        <v>0.1215326453128901</v>
       </c>
       <c r="T7">
-        <v>0.03161363187957632</v>
+        <v>0.12153264531289</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,60 +900,60 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>91.2433905747086</v>
+        <v>68.382243</v>
       </c>
       <c r="H8">
-        <v>91.2433905747086</v>
+        <v>205.146729</v>
       </c>
       <c r="I8">
-        <v>0.2717910776365635</v>
+        <v>0.1892604742946246</v>
       </c>
       <c r="J8">
-        <v>0.2717910776365635</v>
+        <v>0.1892604742946246</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.200217989688372</v>
+        <v>0.173517</v>
       </c>
       <c r="N8">
-        <v>0.200217989688372</v>
+        <v>0.520551</v>
       </c>
       <c r="O8">
-        <v>0.0734120546528184</v>
+        <v>0.05108844029465279</v>
       </c>
       <c r="P8">
-        <v>0.0734120546528184</v>
+        <v>0.05108844029465278</v>
       </c>
       <c r="Q8">
-        <v>18.26856823321911</v>
+        <v>11.865481658631</v>
       </c>
       <c r="R8">
-        <v>18.26856823321911</v>
+        <v>106.789334927679</v>
       </c>
       <c r="S8">
-        <v>0.01995274144560381</v>
+        <v>0.009669022441138599</v>
       </c>
       <c r="T8">
-        <v>0.01995274144560381</v>
+        <v>0.009669022441138595</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,55 +962,55 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>91.2433905747086</v>
+        <v>68.382243</v>
       </c>
       <c r="H9">
-        <v>91.2433905747086</v>
+        <v>205.146729</v>
       </c>
       <c r="I9">
-        <v>0.2717910776365635</v>
+        <v>0.1892604742946246</v>
       </c>
       <c r="J9">
-        <v>0.2717910776365635</v>
+        <v>0.1892604742946246</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.10094435494406</v>
+        <v>0.8133136666666667</v>
       </c>
       <c r="N9">
-        <v>2.10094435494406</v>
+        <v>2.439941</v>
       </c>
       <c r="O9">
-        <v>0.7703335851475741</v>
+        <v>0.2394631459760435</v>
       </c>
       <c r="P9">
-        <v>0.7703335851475741</v>
+        <v>0.2394631459760435</v>
       </c>
       <c r="Q9">
-        <v>191.6972863538901</v>
+        <v>55.616212789221</v>
       </c>
       <c r="R9">
-        <v>191.6972863538901</v>
+        <v>500.545915102989</v>
       </c>
       <c r="S9">
-        <v>0.2093697952468966</v>
+        <v>0.04532090858350893</v>
       </c>
       <c r="T9">
-        <v>0.2093697952468966</v>
+        <v>0.04532090858350891</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,60 +1024,60 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>91.2433905747086</v>
+        <v>104.737245</v>
       </c>
       <c r="H10">
-        <v>91.2433905747086</v>
+        <v>314.211735</v>
       </c>
       <c r="I10">
-        <v>0.2717910776365635</v>
+        <v>0.2898796499701289</v>
       </c>
       <c r="J10">
-        <v>0.2717910776365635</v>
+        <v>0.2898796499701289</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.426155268738376</v>
+        <v>0.22859</v>
       </c>
       <c r="N10">
-        <v>0.426155268738376</v>
+        <v>0.68577</v>
       </c>
       <c r="O10">
-        <v>0.1562543601996075</v>
+        <v>0.06730352972305123</v>
       </c>
       <c r="P10">
-        <v>0.1562543601996075</v>
+        <v>0.06730352972305123</v>
       </c>
       <c r="Q10">
-        <v>38.88385163096554</v>
+        <v>23.94188683455</v>
       </c>
       <c r="R10">
-        <v>38.88385163096554</v>
+        <v>215.47698151095</v>
       </c>
       <c r="S10">
-        <v>0.04246854094406306</v>
+        <v>0.01950992363787226</v>
       </c>
       <c r="T10">
-        <v>0.04246854094406306</v>
+        <v>0.01950992363787226</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -1086,60 +1086,60 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>34.8599992401179</v>
+        <v>104.737245</v>
       </c>
       <c r="H11">
-        <v>34.8599992401179</v>
+        <v>314.211735</v>
       </c>
       <c r="I11">
-        <v>0.1038391570085698</v>
+        <v>0.2898796499701289</v>
       </c>
       <c r="J11">
-        <v>0.1038391570085698</v>
+        <v>0.2898796499701289</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.200217989688372</v>
+        <v>2.180983666666667</v>
       </c>
       <c r="N11">
-        <v>0.200217989688372</v>
+        <v>6.542951</v>
       </c>
       <c r="O11">
-        <v>0.0734120546528184</v>
+        <v>0.6421448840062525</v>
       </c>
       <c r="P11">
-        <v>0.0734120546528184</v>
+        <v>0.6421448840062525</v>
       </c>
       <c r="Q11">
-        <v>6.979598968394582</v>
+        <v>228.430220636665</v>
       </c>
       <c r="R11">
-        <v>6.979598968394582</v>
+        <v>2055.871985729985</v>
       </c>
       <c r="S11">
-        <v>0.00762304586941572</v>
+        <v>0.1861447342058415</v>
       </c>
       <c r="T11">
-        <v>0.00762304586941572</v>
+        <v>0.1861447342058415</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -1148,60 +1148,60 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>34.8599992401179</v>
+        <v>104.737245</v>
       </c>
       <c r="H12">
-        <v>34.8599992401179</v>
+        <v>314.211735</v>
       </c>
       <c r="I12">
-        <v>0.1038391570085698</v>
+        <v>0.2898796499701289</v>
       </c>
       <c r="J12">
-        <v>0.1038391570085698</v>
+        <v>0.2898796499701289</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>2.10094435494406</v>
+        <v>0.173517</v>
       </c>
       <c r="N12">
-        <v>2.10094435494406</v>
+        <v>0.520551</v>
       </c>
       <c r="O12">
-        <v>0.7703335851475741</v>
+        <v>0.05108844029465279</v>
       </c>
       <c r="P12">
-        <v>0.7703335851475741</v>
+        <v>0.05108844029465278</v>
       </c>
       <c r="Q12">
-        <v>73.23891861687993</v>
+        <v>18.173692540665</v>
       </c>
       <c r="R12">
-        <v>73.23891861687993</v>
+        <v>163.563232865985</v>
       </c>
       <c r="S12">
-        <v>0.07999079009711345</v>
+        <v>0.01480949919013378</v>
       </c>
       <c r="T12">
-        <v>0.07999079009711345</v>
+        <v>0.01480949919013378</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -1213,52 +1213,300 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>34.8599992401179</v>
+        <v>104.737245</v>
       </c>
       <c r="H13">
-        <v>34.8599992401179</v>
+        <v>314.211735</v>
       </c>
       <c r="I13">
-        <v>0.1038391570085698</v>
+        <v>0.2898796499701289</v>
       </c>
       <c r="J13">
-        <v>0.1038391570085698</v>
+        <v>0.2898796499701289</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.426155268738376</v>
+        <v>0.8133136666666667</v>
       </c>
       <c r="N13">
-        <v>0.426155268738376</v>
+        <v>2.439941</v>
       </c>
       <c r="O13">
-        <v>0.1562543601996075</v>
+        <v>0.2394631459760435</v>
       </c>
       <c r="P13">
-        <v>0.1562543601996075</v>
+        <v>0.2394631459760435</v>
       </c>
       <c r="Q13">
-        <v>14.85577234439203</v>
+        <v>85.184232767515</v>
       </c>
       <c r="R13">
-        <v>14.85577234439203</v>
+        <v>766.658094907635</v>
       </c>
       <c r="S13">
-        <v>0.01622532104204066</v>
+        <v>0.06941549293628138</v>
       </c>
       <c r="T13">
-        <v>0.01622532104204066</v>
+        <v>0.06941549293628137</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>38.15794</v>
+      </c>
+      <c r="H14">
+        <v>114.47382</v>
+      </c>
+      <c r="I14">
+        <v>0.105609139239639</v>
+      </c>
+      <c r="J14">
+        <v>0.105609139239639</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.22859</v>
+      </c>
+      <c r="N14">
+        <v>0.68577</v>
+      </c>
+      <c r="O14">
+        <v>0.06730352972305123</v>
+      </c>
+      <c r="P14">
+        <v>0.06730352972305123</v>
+      </c>
+      <c r="Q14">
+        <v>8.7225235046</v>
+      </c>
+      <c r="R14">
+        <v>78.5027115414</v>
+      </c>
+      <c r="S14">
+        <v>0.0071078678418409</v>
+      </c>
+      <c r="T14">
+        <v>0.007107867841840899</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>38.15794</v>
+      </c>
+      <c r="H15">
+        <v>114.47382</v>
+      </c>
+      <c r="I15">
+        <v>0.105609139239639</v>
+      </c>
+      <c r="J15">
+        <v>0.105609139239639</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>2.180983666666667</v>
+      </c>
+      <c r="N15">
+        <v>6.542951</v>
+      </c>
+      <c r="O15">
+        <v>0.6421448840062525</v>
+      </c>
+      <c r="P15">
+        <v>0.6421448840062525</v>
+      </c>
+      <c r="Q15">
+        <v>83.22184389364668</v>
+      </c>
+      <c r="R15">
+        <v>748.9965950428201</v>
+      </c>
+      <c r="S15">
+        <v>0.06781636846703816</v>
+      </c>
+      <c r="T15">
+        <v>0.06781636846703813</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>38.15794</v>
+      </c>
+      <c r="H16">
+        <v>114.47382</v>
+      </c>
+      <c r="I16">
+        <v>0.105609139239639</v>
+      </c>
+      <c r="J16">
+        <v>0.105609139239639</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.173517</v>
+      </c>
+      <c r="N16">
+        <v>0.520551</v>
+      </c>
+      <c r="O16">
+        <v>0.05108844029465279</v>
+      </c>
+      <c r="P16">
+        <v>0.05108844029465278</v>
+      </c>
+      <c r="Q16">
+        <v>6.621051274980001</v>
+      </c>
+      <c r="R16">
+        <v>59.58946147482</v>
+      </c>
+      <c r="S16">
+        <v>0.00539540620461397</v>
+      </c>
+      <c r="T16">
+        <v>0.005395406204613968</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>38.15794</v>
+      </c>
+      <c r="H17">
+        <v>114.47382</v>
+      </c>
+      <c r="I17">
+        <v>0.105609139239639</v>
+      </c>
+      <c r="J17">
+        <v>0.105609139239639</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.8133136666666667</v>
+      </c>
+      <c r="N17">
+        <v>2.439941</v>
+      </c>
+      <c r="O17">
+        <v>0.2394631459760435</v>
+      </c>
+      <c r="P17">
+        <v>0.2394631459760435</v>
+      </c>
+      <c r="Q17">
+        <v>31.03437409384667</v>
+      </c>
+      <c r="R17">
+        <v>279.30936684462</v>
+      </c>
+      <c r="S17">
+        <v>0.02528949672614598</v>
+      </c>
+      <c r="T17">
+        <v>0.02528949672614597</v>
       </c>
     </row>
   </sheetData>
